--- a/missingEntries.xlsx
+++ b/missingEntries.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A370"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,1855 +406,4278 @@
       <c r="A1" t="str">
         <v>Nummer</v>
       </c>
+      <c r="B1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Landingpage</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Direktlink</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Stelle</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>99050036005000</v>
+      <c r="A2" t="str">
+        <v>99050058108000</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Besonders sachkundige Versteigerer Öffentliche Bestellung und Vereidigung</v>
+      </c>
+      <c r="C2" t="str">
+        <v>/antrag/versteigerergewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E2" t="str">
+        <v>IHK</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>99050058108000</v>
+      <c r="A3" t="str">
+        <v>99089104007000</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ausnahme von Verboten beim Überlassen von Schusswaffen, Munition, Hieb- oder Stoßwaffen Zulassung</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>99050212006000</v>
+      <c r="A4" t="str">
+        <v>99050032002001</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Veranstaltung Festsetzung von Tierausstellung, Tiermarkt oder Tierbörse</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>99050211261000</v>
+      <c r="A5" t="str">
+        <v>99025004020000</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Sperrzeit Verlängerung</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>99089104007000</v>
+      <c r="A6" t="str">
+        <v>99063010006000</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Osterfeuer Genehmigung</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>99050032002001</v>
+      <c r="A7" t="str">
+        <v>99025004057000</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Sperrzeit Verkürzung</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>99025004020000</v>
+      <c r="A8" t="str">
+        <v>99012016031000</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Fliegende Bauten Abnahme</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>99063010006000</v>
+      <c r="A9" t="str">
+        <v>99050032002000</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Veranstaltung Festsetzung</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>99025004057000</v>
+      <c r="A10" t="str">
+        <v>99025004044000</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Sperrzeit Aufhebung</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>99012016031000</v>
+      <c r="A11" t="str">
+        <v>99108004001000</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ausnahmegenehmigungen für den Verkehr Erteilung</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>Kommunale Ordnungsbehörden</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>99050032002000</v>
+      <c r="A12" t="str">
+        <v>99078036016000</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Erzeugerorganisation Anerkennung</v>
+      </c>
+      <c r="C12" t="str">
+        <v>/antrag/erzeugergemeinschaft-leistungsauswahl/</v>
+      </c>
+      <c r="E12" t="str">
+        <v>LANUV / NRW weit</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>99025004044000</v>
+      <c r="A13" t="str">
+        <v>99078037016000</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Vereinigung von Erzeugerorganisationen Anerkennung</v>
+      </c>
+      <c r="C13" t="str">
+        <v>/antrag/erzeugergemeinschaft-leistungsauswahl/</v>
+      </c>
+      <c r="E13" t="str">
+        <v>LANUV / NRW weit</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>99108004001000</v>
+      <c r="A14" t="str">
+        <v>99006041261002</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Anzeige Tätigkeiten mit Asbest Entgegennahme objektbezogen</v>
+      </c>
+      <c r="C14" t="str">
+        <v>/antrag/asbest-anzeige-leistungsauswahl/</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>99078036016000</v>
+      <c r="A15" t="str">
+        <v>99006041261000</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Anzeige Tätigkeiten mit Asbest Entgegennahme</v>
+      </c>
+      <c r="C15" t="str">
+        <v>/antrag/asbest-anzeige-leistungsauswahl/</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>99078037016000</v>
+      <c r="A16" t="str">
+        <v>99006041261003</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Anzeige Tätigkeiten mit Asbest Entgegennahme unternehmensbezogen ergänzend</v>
+      </c>
+      <c r="C16" t="str">
+        <v>/antrag/asbest-anzeige-leistungsauswahl/</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>99006041261002</v>
+      <c r="A17" t="str">
+        <v>99006041261001</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Anzeige Tätigkeiten mit Asbest Entgegennahme unternehmensbezogen</v>
+      </c>
+      <c r="C17" t="str">
+        <v>/antrag/asbest-anzeige-leistungsauswahl/</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>99006041261000</v>
+      <c r="A18" t="str">
+        <v>99048013261000</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Anzeige eines Forstsamen- oder Forstpflanzenbetriebes Entgegennahme</v>
+      </c>
+      <c r="C18" t="str">
+        <v>/antrag/forstbetriebe-leistungsauswahl/</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>99006041261003</v>
+      <c r="A19" t="str">
+        <v>99102161008000</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Anzeige der Änderung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung</v>
+      </c>
+      <c r="C19" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Kommunale Ordnungsbehörde</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>99006041261001</v>
+      <c r="A20" t="str">
+        <v>99102161008002</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Anzeige der Änderung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung im Tierschutzrecht</v>
+      </c>
+      <c r="C20" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Kreisordnungsbehörden</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>99048013261000</v>
+      <c r="A21" t="str">
+        <v>99102159008000</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Anzeige der erstmaligen Erbringung grenzüberschreitender  Dienstleistungen in reglementierten Berufen Bestätigung</v>
+      </c>
+      <c r="C21" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Kommunale Ordnungsbehörde</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>99102161008000</v>
+      <c r="A22" t="str">
+        <v>99102160008000</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Anzeige der Fortsetzung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung</v>
+      </c>
+      <c r="C22" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Kommunale Ordnungsbehörde</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>99102160008003</v>
+      <c r="A23" t="str">
+        <v>99102159008001</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Anzeige der erstmaligen Erbringung grenzüberschreitender  Dienstleistungen in reglementierten Berufen Bestätigung im Pflanzenschutzrecht</v>
+      </c>
+      <c r="C23" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E23" t="str">
+        <v>LWK</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>99102161008003</v>
+      <c r="A24" t="str">
+        <v>99102161008004</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Anzeige der Änderung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung im Sprengstoffrecht</v>
+      </c>
+      <c r="C24" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Bezirksregierungen</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>99102161008002</v>
+      <c r="A25" t="str">
+        <v>99102159008002</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Anzeige der erstmaligen Erbringung grenzüberschreitender  Dienstleistungen in reglementierten Berufen Bestätigung im Tierschutzrecht</v>
+      </c>
+      <c r="C25" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Kreisordnungsbehörden</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>99102159008000</v>
+      <c r="A26" t="str">
+        <v>99102161008001</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Anzeige der Änderung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung im Pflanzenschutzrecht</v>
+      </c>
+      <c r="C26" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E26" t="str">
+        <v>LWK</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>99102160008000</v>
+      <c r="A27" t="str">
+        <v>99102159008004</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Anzeige der erstmaligen Erbringung grenzüberschreitender  Dienstleistungen in reglementierten Berufen Bestätigung im Sprengstoffrecht</v>
+      </c>
+      <c r="C27" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Bezirksregierungen</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>99102159008001</v>
+      <c r="A28" t="str">
+        <v>99102160008004</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Anzeige der Fortsetzung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung im Sprengstoffrecht</v>
+      </c>
+      <c r="C28" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Bezirksregierungen</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>99102161008004</v>
+      <c r="A29" t="str">
+        <v>99102160008002</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Anzeige der Fortsetzung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung im Tierschutzrecht</v>
+      </c>
+      <c r="C29" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Kreisordnungsbehörden</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>99102159008003</v>
+      <c r="A30" t="str">
+        <v>99102160008001</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Anzeige der Fortsetzung der Erbringung grenzüberschreitender Dienstleistungen in reglementierten Berufen Bestätigung im Pflanzenschutzrecht</v>
+      </c>
+      <c r="C30" t="str">
+        <v>/antrag/grenzueberschreitendeerbringungvondienstleistungen/</v>
+      </c>
+      <c r="E30" t="str">
+        <v>LWK</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>99102159008002</v>
+      <c r="A31" t="str">
+        <v>99058062008000</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Anzeige der Fortsetzung der Erbringung grenzüberschreitender Dienstleistungen im zulassungspflichtigen Handwerk Bestätigung</v>
+      </c>
+      <c r="C31" t="str">
+        <v>/antrag/handwerk-anzeige-eu</v>
+      </c>
+      <c r="E31" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>99102161008001</v>
+      <c r="A32" t="str">
+        <v>99058021012000</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Bescheinigung der Gestattung zur Erbringung vorübergehender grenzüberschreitender Dienstleistungen nach § 9 Absatz 1 Nummer 2 Handwerksordnung (HwO) im Bereich des zulassungspflichtigen Handwerks Ausstellung</v>
+      </c>
+      <c r="C32" t="str">
+        <v>/antrag/handwerk-anzeige-eu</v>
+      </c>
+      <c r="E32" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>99102159008004</v>
+      <c r="A33" t="str">
+        <v>99058061008000</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Anzeige der erstmaligen Erbringung grenzüberschreitender Dienstleistungen im zulassungspflichtigen Handwerk Bestätigung</v>
+      </c>
+      <c r="C33" t="str">
+        <v>/antrag/handwerk-anzeige-eu</v>
+      </c>
+      <c r="E33" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>99102160008004</v>
+      <c r="A34" t="str">
+        <v>99058063008000</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Anzeige der Änderung der Erbringung grenzüberschreitender Dienstleistungen im zulassungspflichtigen Handwerk Bestätigung</v>
+      </c>
+      <c r="C34" t="str">
+        <v>/antrag/handwerk-anzeige-eu</v>
+      </c>
+      <c r="E34" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>99102160008002</v>
+      <c r="A35" t="str">
+        <v>99147014261000</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Anzeige der Aufnahme der Tätigkeit als Prüfsachverständiger für Brandschutz Entgegennahme</v>
+      </c>
+      <c r="C35" t="str">
+        <v>/antrag/pruefsv-eu-leistungsauswahl/</v>
+      </c>
+      <c r="E35" t="str">
+        <v>IK-Bau NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>99102160008001</v>
+      <c r="A36" t="str">
+        <v>99018133261001</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Anzeige der Aufnahme der Tätigkeit als Prüfsachverständiger Entgegennahme Schall- und Wärmeschutz</v>
+      </c>
+      <c r="C36" t="str">
+        <v>/antrag/pruefsv-eu-leistungsauswahl/</v>
+      </c>
+      <c r="E36" t="str">
+        <v>IK-Bau NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>99058062008000</v>
+      <c r="A37" t="str">
+        <v>99147015261000</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Anzeige der Aufnahme der Tätigkeit als Prüfsachverständiger für Standsicherheit Entgegennahme</v>
+      </c>
+      <c r="C37" t="str">
+        <v>/antrag/pruefsv-eu-leistungsauswahl/</v>
+      </c>
+      <c r="E37" t="str">
+        <v>IK-Bau NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>99058021012000</v>
+      <c r="A38" t="str">
+        <v>99012051261000</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Anzeige der Aufnahme der Tätigkeit als Prüfsachverständiger für den Erd- und Grundbau Entgegennahme</v>
+      </c>
+      <c r="C38" t="str">
+        <v>/antrag/pruefsv-eu-leistungsauswahl/</v>
+      </c>
+      <c r="E38" t="str">
+        <v>IK-Bau NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>99058061008000</v>
+      <c r="A39" t="str">
+        <v>99005002005000</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Versand von apothekenpflichtigen Arzneimitteln Erlaubnis</v>
+      </c>
+      <c r="C39" t="str">
+        <v>/antrag/apotheke-apotheken-und-arzneimittel/</v>
+      </c>
+      <c r="E39" t="str">
+        <v xml:space="preserve">Kreisordnungsbehörden / Kreise und kreisfreie Städte </v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>99058063008000</v>
+      <c r="A40" t="str">
+        <v>99004002005000</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Betrieb einer öffentlichen Apotheke Erlaubnis</v>
+      </c>
+      <c r="C40" t="str">
+        <v>/antrag/apotheke-apotheken-und-arzneimittel/</v>
+      </c>
+      <c r="E40" t="str">
+        <v xml:space="preserve">Kreisordnungsbehörden / Kreise und kreisfreie Städte </v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>99147014261000</v>
+      <c r="A41" t="str">
+        <v>99004001005000</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Betrieb einer Krankenhausapotheke Erlaubnis</v>
+      </c>
+      <c r="C41" t="str">
+        <v>/antrag/apotheke-apotheken-und-arzneimittel/</v>
+      </c>
+      <c r="E41" t="str">
+        <v xml:space="preserve">Kreisordnungsbehörden / Kreise und kreisfreie Städte </v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>99018133261001</v>
+      <c r="A42" t="str">
+        <v>99018142001000</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Approbation als Psychotherapeutin/Psychotherapeut Erteilung</v>
+      </c>
+      <c r="C42" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>99147015261000</v>
+      <c r="A43" t="str">
+        <v>99018001001000</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Approbation als Arzt Erteilung</v>
+      </c>
+      <c r="C43" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>99012051261000</v>
+      <c r="A44" t="str">
+        <v>99018019001000</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Approbation als Apotheker Erteilung</v>
+      </c>
+      <c r="C44" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>99005002005000</v>
+      <c r="A45" t="str">
+        <v>99018021001000</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Approbation als Zahnarzt Erteilung</v>
+      </c>
+      <c r="C45" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>99004002005000</v>
+      <c r="A46" t="str">
+        <v>99018023001000</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Approbation als Kinder- und Jugendlichenpsychotherapeut Erteilung</v>
+      </c>
+      <c r="C46" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>99004001005000</v>
+      <c r="A47" t="str">
+        <v>99018025001000</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Approbation als Psychologischer Psychotherapeut Erteilung</v>
+      </c>
+      <c r="C47" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>99005072261000</v>
+      <c r="A48" t="str">
+        <v>99018151036000</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Approbationsurkunde Ersatz</v>
+      </c>
+      <c r="C48" t="str">
+        <v>/antrag/approbation-leistungsauswahl/</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>99018142001000</v>
+      <c r="A49" t="str">
+        <v>99018144261000</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Verzichtserklärung auf die Approbation als Psychologische Psychotherapeutin/Psychologischer Psychotherapeut Entgegennahme</v>
+      </c>
+      <c r="C49" t="str">
+        <v>/antrag/approbation-verzicht/</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>99018001001000</v>
+      <c r="A50" t="str">
+        <v>99018147261000</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Verzichtserklärung auf die Approbation als Zahnärztin/Zahnarzt Entgegennahme</v>
+      </c>
+      <c r="C50" t="str">
+        <v>/antrag/approbation-verzicht/</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>99018019001000</v>
+      <c r="A51" t="str">
+        <v>99018145261000</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Verzichtserklärung auf die Approbation als Apothekerin oder Apotheker Entgegennahme</v>
+      </c>
+      <c r="C51" t="str">
+        <v>/antrag/approbation-verzicht/</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>99018021001000</v>
+      <c r="A52" t="str">
+        <v>99018146261000</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Verzichtserklärung auf die Approbation als Ärztin/Arzt Entgegennahme</v>
+      </c>
+      <c r="C52" t="str">
+        <v>/antrag/approbation-verzicht/</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>99018023001000</v>
+      <c r="A53" t="str">
+        <v>99018143261000</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Verzichtserklärung auf die Approbation als Kinder- und Jugendlichenpsychotherapeutin/-Psychotherapeut Entgegennahme</v>
+      </c>
+      <c r="C53" t="str">
+        <v>/antrag/approbation-verzicht/</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>99018025001000</v>
+      <c r="A54" t="str">
+        <v>99018153261000</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Verzichtserklärung auf die Approbation als Psychotherapeutin/Psychotherapeut Entgegennahme</v>
+      </c>
+      <c r="C54" t="str">
+        <v>/antrag/approbation-verzicht/</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>99018151036000</v>
+      <c r="A55" t="str">
+        <v>99006051261000</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Anzeige zur Aufnahme von Tätigkeiten mit biologischen Arbeitsstoffen Entgegennahme</v>
+      </c>
+      <c r="C55" t="str">
+        <v>/antrag/biologische-arbeitsstoffe-leistungsauswahl/</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>99018144261000</v>
+      <c r="A56" t="str">
+        <v>99006050001000</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Erlaubnis zur Aufnahme von Tätigkeiten mit biologischen Arbeitsstoffen Erteilung</v>
+      </c>
+      <c r="C56" t="str">
+        <v>/antrag/biologische-arbeitsstoffe-leistungsauswahl/</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>99018147261000</v>
+      <c r="A57" t="str">
+        <v>99018006060000</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Arztregister Eintragung</v>
+      </c>
+      <c r="C57" t="str">
+        <v>/antrag/arztregister-leistungsauswahl/</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Kassenärztliche Vereinigungen</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>99018145261000</v>
+      <c r="A58" t="str">
+        <v>99052001055000</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Auskunft über Gewerbetreibende Übermittlung</v>
+      </c>
+      <c r="C58" t="str">
+        <v>/antrag/gewerberegisterauskunft-leistungsauswahl/</v>
+      </c>
+      <c r="E58" t="str">
+        <v xml:space="preserve">Kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden) </v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>99018146261000</v>
+      <c r="A59" t="str">
+        <v>99026005001000</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Ausnahmegenehmigung für Einzelfahrten Erteilung</v>
+      </c>
+      <c r="C59" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>99018143261000</v>
+      <c r="A60" t="str">
+        <v>99026004001000</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Ausnahmegenehmigung für Fahrzeuge und Fahrzeugkombinationen Erteilung</v>
+      </c>
+      <c r="C60" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>99018153261000</v>
+      <c r="A61" t="str">
+        <v>99026005001001</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Ausnahmegenehmigung für Einzelfahrten Erteilung über 3,5 t</v>
+      </c>
+      <c r="C61" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>99006051261000</v>
+      <c r="A62" t="str">
+        <v>99026004001006</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Ausnahmegenehmigung für Fahrzeuge und Fahrzeugkombinationen Erteilung über 3,5 t</v>
+      </c>
+      <c r="C62" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>99006050001000</v>
+      <c r="A63" t="str">
+        <v>99026004001005</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Ausnahmegenehmigung für Fahrzeuge und Fahrzeugkombinationen Erteilung Ersatz nach Verlustanzeige</v>
+      </c>
+      <c r="C63" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte (für unter 3,5 t) ODER Bezirksregierungen (alle) / Bezirksregierungen (für über 3,5 t)</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>99018006060000</v>
+      <c r="A64" t="str">
+        <v>99026004001002</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Ausnahmegenehmigung für Fahrzeuge und Fahrzeugkombinationen Erteilung Ausrüstung von Fahrzeugen mit blauem Rundumlicht und Einsatzhorn</v>
+      </c>
+      <c r="C64" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>99052001055000</v>
+      <c r="A65" t="str">
+        <v>99026004001001</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Ausnahmegenehmigung für Fahrzeuge und Fahrzeugkombinationen Erteilung Abgas- und/oder Geräuschverhalten</v>
+      </c>
+      <c r="C65" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-leistungsauswahl/</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>99026005001000</v>
+      <c r="A66" t="str">
+        <v>99026005001002</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Ausnahmegenehmigung für Einzelfahrten Erteilung unter 3,5 t</v>
+      </c>
+      <c r="C66" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-kreise-leistungsauswahl/</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>99026004001000</v>
+      <c r="A67" t="str">
+        <v>99026004001007</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Ausnahmegenehmigung für Fahrzeuge und Fahrzeugkombinationen Erteilung unter 3,5 t</v>
+      </c>
+      <c r="C67" t="str">
+        <v>/antrag/einzelbetriebserlaubnis-kreise-leistungsauswahl/</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>99026005001001</v>
+      <c r="A68" t="str">
+        <v>99102037012000</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Bescheinigung in Steuersachen Ausstellung</v>
+      </c>
+      <c r="C68" t="str">
+        <v>/antrag/steuerliche-unbedenklichkeitsbescheinigung-leistungsauswahl/</v>
+      </c>
+      <c r="E68" t="str">
+        <v xml:space="preserve">Kommunale Steuerämter / Gemeinde (396 Städte und Gemeinden) </v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>99026004001006</v>
+      <c r="A69" t="str">
+        <v>99050003044000</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Bestellung zum Bezirksschornsteinfeger Aufhebung</v>
+      </c>
+      <c r="C69" t="str">
+        <v>/antrag/bezirksschornsteinfeger-leistungsauswahl/</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Bezirksregierungen (alle)/ Bezirksregierungen</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>99026004001005</v>
+      <c r="A70" t="str">
+        <v>99148193017000</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Überbrückungshilfe für kleine und mittelständische Unternehmen, die ihren Geschäftsbetrieb im Zuge der Corona-Krise ganz oder zu wesentlichen Teilen einstellen müssen Bewilligung</v>
+      </c>
+      <c r="C70" t="str">
+        <v>/antrag/corona-wirtschaftshilfe-leistungsauswahl/</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <v>99026004001002</v>
+      <c r="A71" t="str">
+        <v>99058007060015</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Handwerksrolle Eintragung von Personen Ausnahmebewilligung nach § 8 HwO</v>
+      </c>
+      <c r="C71" t="str">
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <v>99026004001001</v>
+      <c r="A72" t="str">
+        <v>99058007060017</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Handwerksrolle Eintragung von Personen mit einem Hochschulabschluss aus EU/EWR/CH</v>
+      </c>
+      <c r="C72" t="str">
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <v>99026004001008</v>
+      <c r="A73" t="str">
+        <v>99058007060000</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Handwerksrolle Eintragung</v>
+      </c>
+      <c r="C73" t="str">
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
-        <v>99026005001002</v>
+      <c r="A74" t="str">
+        <v>99058007060008</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Handwerksrolle Eintragung von Personen mit bestandener Meisterprüfung</v>
+      </c>
+      <c r="C74" t="str">
+        <v/>
+      </c>
+      <c r="E74" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <v>99026004001007</v>
+      <c r="A75" t="str">
+        <v>99058007060009</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Handwerksrolle Eintragung von Ingenieuren und Absolventen von technischen Hochschulen und Fachschulen für Technik</v>
+      </c>
+      <c r="C75" t="str">
+        <v/>
+      </c>
+      <c r="E75" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
-        <v>99102037012000</v>
+      <c r="A76" t="str">
+        <v>99058007060011</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Handwerksrolle Eintragung von Personen mit einer Ausübungsberechtigung</v>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+      <c r="E76" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
-        <v>99050079056000</v>
+      <c r="A77" t="str">
+        <v>99058007060012</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Handwerksrolle Eintragung von Vertriebenen und Spätaussiedlern mit einer der Meisterprüfung gleichwertigen bestandenen Prüfung im Ausland</v>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>99050078056000</v>
+      <c r="A78" t="str">
+        <v>99058007060013</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Handwerksrolle Eintragung von Personen mit einer Ausnahmebewilligung nach § 9 Abs. 1 HwO</v>
+      </c>
+      <c r="C78" t="str">
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
-        <v>99050004005000</v>
+      <c r="A79" t="str">
+        <v>99058007060014</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Handwerksrolle Eintragung von Personen mit im Ausland erworbenen Berufsqualifikationen auf Grundlage einer Gleichwertigkeitsfeststellung</v>
+      </c>
+      <c r="C79" t="str">
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
-        <v>99050003044000</v>
+      <c r="A80" t="str">
+        <v>99058007060016</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Handwerksrolle Eintragung von Personen mit gleichgestellter inländischer Prüfung</v>
+      </c>
+      <c r="C80" t="str">
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <v>HWK/ 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
-        <v>99148193017000</v>
+      <c r="A81" t="str">
+        <v>99018098001000</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Altenpflegerin oder Altenpfleger Erteilung</v>
+      </c>
+      <c r="C81" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
-        <v>99058007060015</v>
+      <c r="A82" t="str">
+        <v>99018049001000</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Hebamme / Entbindungspfleger Erteilung</v>
+      </c>
+      <c r="C82" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
-        <v>99058007060017</v>
+      <c r="A83" t="str">
+        <v>99018096001000</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Notfallsanitäterin / Notfallsanitäter Erteilung</v>
+      </c>
+      <c r="C83" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
-        <v>99058007060000</v>
+      <c r="A84" t="str">
+        <v>99018069001000</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Logopädin / Logopäde Erteilung</v>
+      </c>
+      <c r="C84" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
-        <v>99058007060008</v>
+      <c r="A85" t="str">
+        <v>99018071001000</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Masseurin /Masseur und medizinische(r)Bademeisterin / Bademeister Erteilung</v>
+      </c>
+      <c r="C85" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
-        <v>99058007060009</v>
+      <c r="A86" t="str">
+        <v>99018085001000</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Podologin / Podologe Erteilung</v>
+      </c>
+      <c r="C86" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
-        <v>99058007060011</v>
+      <c r="A87" t="str">
+        <v>99018083001000</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Physiotherapeutin / -therapeut Erteilung</v>
+      </c>
+      <c r="C87" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
-        <v>99058007060012</v>
+      <c r="A88" t="str">
+        <v>99018035001000</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Diätassistentin / Diätassistent Erteilung</v>
+      </c>
+      <c r="C88" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
-        <v>99058007060013</v>
+      <c r="A89" t="str">
+        <v>99018037001000</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Ergotherapeutin / Ergotherapeut Erteilung</v>
+      </c>
+      <c r="C89" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
-        <v>99058007060014</v>
+      <c r="A90" t="str">
+        <v>99018067001000</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Gesundheitsaufseherin / -aufseher Erteilung</v>
+      </c>
+      <c r="C90" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
-        <v>99058007060016</v>
+      <c r="A91" t="str">
+        <v>99018039001000</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Gesundheits- und Kinderkrankenpflegerin / -pfleger Erteilung</v>
+      </c>
+      <c r="C91" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
-        <v>99018098001000</v>
+      <c r="A92" t="str">
+        <v>99018043001000</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Gesundheits- und Krankenpflegerin / - pfleger Erteilung</v>
+      </c>
+      <c r="C92" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
-        <v>99018049001000</v>
+      <c r="A93" t="str">
+        <v>99018079001000</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Orthoptist/-in Erteilung</v>
+      </c>
+      <c r="C93" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
-        <v>99018096001000</v>
+      <c r="A94" t="str">
+        <v>99018138001000</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Pflegefachfrau / Pflegefachmann Erteilung</v>
+      </c>
+      <c r="C94" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
-        <v>99018069001000</v>
+      <c r="A95" t="str">
+        <v>99018081001000</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Veterinärmedizinisch-technische(r) Assistentin / -assistent Erteilung</v>
+      </c>
+      <c r="C95" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
-        <v>99018071001000</v>
+      <c r="A96" t="str">
+        <v>99018140001000</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Operationstechnische Assistentin / Operationstechnischer Assistent Erteilung</v>
+      </c>
+      <c r="C96" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97">
-        <v>99018085001000</v>
+      <c r="A97" t="str">
+        <v>99018075001000</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Medizinisch-technische(r) Laboratoriumsassistentin / -assistent Erteilung</v>
+      </c>
+      <c r="C97" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98">
-        <v>99018083001000</v>
+      <c r="A98" t="str">
+        <v>99018087001000</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Pharmazeutisch-technische(r) Assistentin / Assistent Erteilung</v>
+      </c>
+      <c r="C98" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99">
-        <v>99018035001000</v>
+      <c r="A99" t="str">
+        <v>99018077001000</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Medizinisch-technische(r) Radiologieassistentin / -assistent Erteilung</v>
+      </c>
+      <c r="C99" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
-        <v>99018037001000</v>
+      <c r="A100" t="str">
+        <v>99018073001000</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Medizinisch-technische(r) Assistent / Assistentin für Funktionsdiagnostik Erteilung</v>
+      </c>
+      <c r="C100" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101">
-        <v>99018067001000</v>
+      <c r="A101" t="str">
+        <v>99018139001000</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Erlaubnis zum Führen der Berufsbezeichnung Anästhesietechnische Assistentin / Änasthesietechnischer Assistent Erteilung</v>
+      </c>
+      <c r="C101" t="str">
+        <v>/antrag/erlaubnis-fuehrung-berufsbezeichnung-leistungsauswahl/</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102">
-        <v>99018039001000</v>
+      <c r="A102" t="str">
+        <v>99110003001000</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Erlaubnis zur Zucht, Haltung und zum Handel mit Tieren Erteilung</v>
+      </c>
+      <c r="C102" t="str">
+        <v>/antrag/erlaubnistierzucht/</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103">
-        <v>99018043001000</v>
+      <c r="A103" t="str">
+        <v>99050051001000</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Erlaubnis zur gewerbsmäßigen Bekämpfung von Wirbeltieren als Schädlinge Erteilung</v>
+      </c>
+      <c r="C103" t="str">
+        <v>/antrag/erlaubnistierzucht/</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104">
-        <v>99018079001000</v>
+      <c r="A104" t="str">
+        <v>99019069007000</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Prüfung zur Geprüften Fachkraft zur Arbeits- und Berufsförderung Zulassung</v>
+      </c>
+      <c r="C104" t="str">
+        <v>/antrag/erlaubnis-geprufte-fachkraft-abf-leistungsauswahl/</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Landschaftsverbände / 2 Landschaftsverbände: Landschaftsverband Rheinland (LVR) und Landschaftsverband Westfalen-Lippe (LWL)</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
-        <v>99018138001000</v>
+      <c r="A105" t="str">
+        <v>99036006005000</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Betrieb von Fahrzeugteilen Erlaubnis</v>
+      </c>
+      <c r="C105" t="str">
+        <v>/antrag/fahrzeuge-fahrzeugteile-leistungsauswahl/</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106">
-        <v>99018081001000</v>
+      <c r="A106" t="str">
+        <v>99026007005001</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Betrieb von Einzelfahrzeugen Erlaubnis Ersatz nach Verlustanzeige</v>
+      </c>
+      <c r="C106" t="str">
+        <v>/antrag/fahrzeuge-fahrzeugteile-leistungsauswahl/</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107">
-        <v>99018140001000</v>
+      <c r="A107" t="str">
+        <v>99026006005000</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Betrieb von zulassungsfreien Fahrzeugen Erlaubnis</v>
+      </c>
+      <c r="C107" t="str">
+        <v>/antrag/fahrzeuge-fahrzeugteile-leistungsauswahl/</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108">
-        <v>99018075001000</v>
+      <c r="A108" t="str">
+        <v>99026007005000</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Betrieb von Einzelfahrzeugen Erlaubnis</v>
+      </c>
+      <c r="C108" t="str">
+        <v>/antrag/fahrzeuge-fahrzeugteile-leistungsauswahl/</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Straßenverkehrsämter / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109">
-        <v>99018087001000</v>
+      <c r="A109" t="str">
+        <v>99025002056000</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Gaststättengewerbe Gestattung</v>
+      </c>
+      <c r="C109" t="str">
+        <v>/antrag/gaststaettengewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E109" t="str">
+        <v>kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden)  ACHTUNG: keine APs aus NRW vorhanden nur aus anderen BL</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110">
-        <v>99018077001000</v>
+      <c r="A110" t="str">
+        <v>99025012001000</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Vorläufige Stellvertretungserlaubnis für ein erlaubnisbedürftiges Gaststättengewerbe Erteilung</v>
+      </c>
+      <c r="C110" t="str">
+        <v>/antrag/gaststaettengewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E110" t="str">
+        <v>kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden)  ACHTUNG: keine APs aus NRW vorhanden nur aus anderen BL</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111">
-        <v>99018073001000</v>
+      <c r="A111" t="str">
+        <v>99025002169000</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Gaststättengewerbe Anzeige</v>
+      </c>
+      <c r="C111" t="str">
+        <v>/antrag/gaststaettengewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E111" t="str">
+        <v xml:space="preserve">Keine Zuständigkeit in NRW </v>
       </c>
     </row>
     <row r="112">
-      <c r="A112">
-        <v>99018139001000</v>
+      <c r="A112" t="str">
+        <v>99025002169001</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Gaststättengewerbe Anzeige dauerhaft</v>
+      </c>
+      <c r="C112" t="str">
+        <v>/antrag/gaststaettengewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E112" t="str">
+        <v xml:space="preserve">Keine Zuständigkeit in NRW </v>
       </c>
     </row>
     <row r="113">
-      <c r="A113">
-        <v>99071002001000</v>
+      <c r="A113" t="str">
+        <v>99025002169002</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Gaststättengewerbe Anzeige vorübergehend</v>
+      </c>
+      <c r="C113" t="str">
+        <v>/antrag/gaststaettengewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E113" t="str">
+        <v xml:space="preserve">Keine Zuständigkeit in NRW </v>
       </c>
     </row>
     <row r="114">
-      <c r="A114">
-        <v>99110003001000</v>
+      <c r="A114" t="str">
+        <v>99025013261000</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Anzeige der Beendigung einer Stellvertretung für ein erlaubnisbedürftiges Gaststättengewerbe Entgegennahme</v>
+      </c>
+      <c r="C114" t="str">
+        <v>/antrag/gaststaettengewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E114" t="str">
+        <v>kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden)  ACHTUNG: keine APs aus NRW vorhanden nur aus anderen BL</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115">
-        <v>99050051001000</v>
+      <c r="A115" t="str">
+        <v>99089151261001</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Bestellung eines Gruppen-Geldwäschebeauftragten Entgegennahme im Glücksspielsektor</v>
+      </c>
+      <c r="C115" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116">
-        <v>99019069007000</v>
+      <c r="A116" t="str">
+        <v>99089150261000</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Einholen von Auskünften von Verpflichteten im Rahmen der Geldwäscheaufsicht Entgegennahme</v>
+      </c>
+      <c r="C116" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E116" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="117">
-      <c r="A117">
-        <v>99018014001001</v>
+      <c r="A117" t="str">
+        <v>99089165010000</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Dokumentation der Risikoanalyse der Geldwäsche und der Terrorismusfinanzierung Befreiung</v>
+      </c>
+      <c r="C117" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E117" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="118">
-      <c r="A118">
-        <v>99018014001000</v>
+      <c r="A118" t="str">
+        <v>99089148261001</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Beschwerden im Rahmen der Geldwäscheaufsicht Entgegennahme im Glücksspielsektor</v>
+      </c>
+      <c r="C118" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119">
-        <v>99050209001000</v>
+      <c r="A119" t="str">
+        <v>99089165010001</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Dokumentation der Risikoanalyse der Geldwäsche und der Terrorismusfinanzierung Befreiung im Glücksspielsektor</v>
+      </c>
+      <c r="C119" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120">
-        <v>99026006005001</v>
+      <c r="A120" t="str">
+        <v>99089051010003</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Meldung des Verdachts auf Geldwäsche oder Terrorismusfinanzierung Befreiung von der Pflicht, einen Geldwäschebeauftragten im Glücksspielsektor zu bestellen</v>
+      </c>
+      <c r="C120" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121">
-        <v>99036006005000</v>
+      <c r="A121" t="str">
+        <v>99089187261001</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Bestellung eines Geldwäschebeauftragten Entgegennahme im Glücksspielsektor</v>
+      </c>
+      <c r="C121" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122">
-        <v>99026007005001</v>
+      <c r="A122" t="str">
+        <v>99089051169003</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Meldung des Verdachts auf Geldwäsche oder Terrorismusfinanzierung Anzeige über die Auslagerung interner Sicherungsmaßnahmen im Glücksspielsektor</v>
+      </c>
+      <c r="C122" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123">
-        <v>99026006005000</v>
+      <c r="A123" t="str">
+        <v>99089152019000</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Registrierungspflicht für Servicedienstleister im Rahmen der Geldwäscheaufsicht Registrierung</v>
+      </c>
+      <c r="C123" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E123" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="124">
-      <c r="A124">
-        <v>99026007005000</v>
+      <c r="A124" t="str">
+        <v>99089051169002</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Meldung des Verdachts auf Geldwäsche oder Terrorismusfinanzierung Anzeige über die Auslagerung interner Sicherungsmaßnahmen</v>
+      </c>
+      <c r="C124" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E124" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="125">
-      <c r="A125">
-        <v>99025002056000</v>
+      <c r="A125" t="str">
+        <v>99089151261000</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Bestellung eines Gruppen-Geldwäschebeauftragten Entgegennahme</v>
+      </c>
+      <c r="C125" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E125" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="126">
-      <c r="A126">
-        <v>99025012001000</v>
+      <c r="A126" t="str">
+        <v>99089051010001</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Meldung des Verdachts auf Geldwäsche oder Terrorismusfinanzierung Befreiung von der Pflicht, einen Geldwäschebeauftragten zu bestellen</v>
+      </c>
+      <c r="C126" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E126" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="127">
-      <c r="A127">
-        <v>99025007261000</v>
+      <c r="A127" t="str">
+        <v>99089148261000</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Beschwerden im Rahmen der Geldwäscheaufsicht Entgegennahme</v>
+      </c>
+      <c r="C127" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E127" t="str">
+        <v xml:space="preserve">Bezirksregierung (alle)/ Bezirksregierungen </v>
       </c>
     </row>
     <row r="128">
-      <c r="A128">
-        <v>99025002005000</v>
+      <c r="A128" t="str">
+        <v>99089187261000</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Bestellung eines Geldwäschebeauftragten Entgegennahme</v>
+      </c>
+      <c r="C128" t="str">
+        <v>/antrag/geldwaeschepraevention-leistungsauswahl/</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Bezirksregierung (alle)/ Bezirksregierungen Dezernat 34</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129">
-        <v>99025002005001</v>
+      <c r="A129" t="str">
+        <v>99045001006000</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Errichtung und Betrieb gentechnischer Anlagen Genehmigung</v>
+      </c>
+      <c r="C129" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl/</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Bezirksregierung Düsseldorf/ NRW-weit</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130">
-        <v>99025002169000</v>
+      <c r="A130" t="str">
+        <v>99005024001000</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Erlaubnis zum Großhandel mit Arzneimitteln Erteilung</v>
+      </c>
+      <c r="C130" t="str">
+        <v>/antrag/grosshandel-apotheke-leistungsauswahl/</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131">
-        <v>99050002005000</v>
+      <c r="A131" t="str">
+        <v>99132024017000</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Gründungsstipendium Bewilligung</v>
+      </c>
+      <c r="C131" t="str">
+        <v>/antrag/grundungsstipendium-leistungsauswahl/</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Forschungszentrum Jülich / NRW weit</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132">
-        <v>99025002169001</v>
+      <c r="A132" t="str">
+        <v>99132024101001</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Gründungsstipendium Mitteilung Vorlage des Schlussverwendungsnachweises</v>
+      </c>
+      <c r="C132" t="str">
+        <v>/antrag/grundungsstipendium-leistungsauswahl/</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Forschungszentrum Jülich / NRW weit</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133">
-        <v>99025002169002</v>
+      <c r="A133" t="str">
+        <v>99132024101000</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Gründungsstipendium Mitteilung</v>
+      </c>
+      <c r="C133" t="str">
+        <v>/antrag/grundungsstipendium-leistungsauswahl/</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Forschungszentrum Jülich / NRW weit</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134">
-        <v>99025005001000</v>
+      <c r="A134" t="str">
+        <v>99132024017001</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Gründungsstipendium Bewilligung Mittelabruf</v>
+      </c>
+      <c r="C134" t="str">
+        <v>/antrag/grundungsstipendium-leistungsauswahl/</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Forschungszentrum Jülich / NRW weit</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135">
-        <v>99025005001001</v>
+      <c r="A135" t="str">
+        <v>99055004032000</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Gemeinschaftslizenz oder Erlaubnisurkunde für den gewerblichen Güterkraftverkehr Erstellung</v>
+      </c>
+      <c r="C135" t="str">
+        <v>/antrag/gueterkraftverkehr-leistungsauswahl/</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Straßenverkehrsämter/ Kreise und kreisfeie Städte</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136">
-        <v>99025013261000</v>
+      <c r="A136" t="str">
+        <v>99018008005000</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Ausübung der Heilkunde Erlaubnis</v>
+      </c>
+      <c r="C136" t="str">
+        <v>/antrag/heilkunde-leistungsauswahl/</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137">
-        <v>99089151261001</v>
+      <c r="A137" t="str">
+        <v>99018008005001</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Ausübung der Heilkunde Erlaubnis auf dem Gebiet der Psychotherapie</v>
+      </c>
+      <c r="C137" t="str">
+        <v>/antrag/heilkunde-leistungsauswahl/</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138">
-        <v>99089150261000</v>
+      <c r="A138" t="str">
+        <v>99018008005002</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Ausübung der Heilkunde Erlaubnis auf dem Gebiet der Physiotherapie</v>
+      </c>
+      <c r="C138" t="str">
+        <v>/antrag/heilkunde-leistungsauswahl/</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Untere Gesundheitsbehörden/ Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139">
-        <v>99089165010000</v>
+      <c r="A139" t="str">
+        <v>99018057016000</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Hufbeschlaglehrschmied/ -schmiedin Anerkennung</v>
+      </c>
+      <c r="C139" t="str">
+        <v>/antrag/hufbeschlag-leistungsauswahl/</v>
+      </c>
+      <c r="E139" t="str">
+        <v>LANUV / NRW-weit</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140">
-        <v>99089148261001</v>
+      <c r="A140" t="str">
+        <v>99050047016000</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Hufbeschlagschmied Anerkennung</v>
+      </c>
+      <c r="C140" t="str">
+        <v>/antrag/hufbeschlag-leistungsauswahl/</v>
+      </c>
+      <c r="E140" t="str">
+        <v>LANUV / NRW-weit</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141">
-        <v>99089165010001</v>
+      <c r="A141" t="str">
+        <v>99071001001000</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Erlaubnis für den Betrieb einer Kindertageseinrichtung Erteilung</v>
+      </c>
+      <c r="C141" t="str">
+        <v>/antrag/kindertageseinrichtung-leistungsauswahl</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Landesjugendämter / 2 Landesjugendämter: LWL-Landesjugendamt Westfalen und LVR-Landesjugendamt Rheinland</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142">
-        <v>99089051010003</v>
+      <c r="A142" t="str">
+        <v>99003021218000</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Tätigkeiten mit Krankheitserregern Veränderungsanzeige</v>
+      </c>
+      <c r="C142" t="str">
+        <v>/antrag/krankheitserreger-leistungsauswahl/</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Untere Gesundheitsbehörden / Kreise und kreisfreie Städte (Anzahl der Behörden s. Impfmeldeformular)</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143">
-        <v>99089187261001</v>
+      <c r="A143" t="str">
+        <v>99003021005000</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Tätigkeiten mit Krankheitserregern Erlaubnis</v>
+      </c>
+      <c r="C143" t="str">
+        <v>/antrag/krankheitserreger-leistungsauswahl/</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Untere Gesundheitsbehörden / Kreise und kreisfreie Städte (Anzahl der Behörden s. Impfmeldeformular)</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144">
-        <v>99089051169003</v>
+      <c r="A144" t="str">
+        <v>99003021169000</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Tätigkeiten mit Krankheitserregern Anzeige</v>
+      </c>
+      <c r="C144" t="str">
+        <v>/antrag/krankheitserreger-leistungsauswahl/</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Untere Gesundheitsbehörden / Kreise und kreisfreie Städte (Anzahl der Behörden s. Impfmeldeformular)</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
-        <v>99089152019000</v>
+      <c r="A145" t="str">
+        <v>99058067064003</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Eintragung in einem Handwerksregister Löschung von Amts wegen</v>
+      </c>
+      <c r="C145" t="str">
+        <v/>
+      </c>
+      <c r="E145" t="str">
+        <v>HWK</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146">
-        <v>99089051169002</v>
+      <c r="A146" t="str">
+        <v>99058067064002</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Eintragung in einem Handwerksregister Löschung eines Handwerks (auf Antrag)</v>
+      </c>
+      <c r="C146" t="str">
+        <v/>
+      </c>
+      <c r="E146" t="str">
+        <v>HWK</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147">
-        <v>99089151261000</v>
+      <c r="A147" t="str">
+        <v>99058067064000</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Eintragung in einem Handwerksregister Löschung</v>
+      </c>
+      <c r="C147" t="str">
+        <v/>
+      </c>
+      <c r="E147" t="str">
+        <v>HWK</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148">
-        <v>99089051010001</v>
+      <c r="A148" t="str">
+        <v>99058067064001</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Eintragung in einem Handwerksregister Löschung des Handwerkbetriebs (auf Antrag)</v>
+      </c>
+      <c r="C148" t="str">
+        <v/>
+      </c>
+      <c r="E148" t="str">
+        <v>HWK</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149">
-        <v>99089148261000</v>
+      <c r="A149" t="str">
+        <v>99037013261000</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Eichung Entgegennahme</v>
+      </c>
+      <c r="C149" t="str">
+        <v>/antrag/messeg/</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Eichämter / 12 Eichämter NRW</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150">
-        <v>99089187261000</v>
+      <c r="A150" t="str">
+        <v>99037013261001</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Eichung Entgegennahme für Taxen und Mietwagen</v>
+      </c>
+      <c r="C150" t="str">
+        <v>/antrag/messeg/</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Eichämter / 12 Eichämter NRW</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151">
-        <v>99045001006000</v>
+      <c r="A151" t="str">
+        <v>99037012261000</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Instandsetzungsbenachrichtigung Entgegennahme</v>
+      </c>
+      <c r="C151" t="str">
+        <v>/antrag/messeg/</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Eichämter / 12 Eichämter NRW</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152">
-        <v>99050012070000</v>
+      <c r="A152" t="str">
+        <v>99037011204000</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Konformität von Messgeräten Bewertung</v>
+      </c>
+      <c r="C152" t="str">
+        <v>/antrag/messeg</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Eichämter / 12 Eichämter NRW</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153">
-        <v>99050012104000</v>
+      <c r="A153" t="str">
+        <v>99045004261000</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Mitteilung zum Betrieb gentechnischer Anlagen Entgegennahme</v>
+      </c>
+      <c r="C153" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154">
-        <v>99050012071000</v>
+      <c r="A154" t="str">
+        <v>99045005261004</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme Mitteilung über Abweichungen vom erwarteten Verlauf der gentechnischen Arbeit mit dem Verdacht einer Gefährdung der Schutzgüter</v>
+      </c>
+      <c r="C154" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155">
-        <v>99005024001000</v>
+      <c r="A155" t="str">
+        <v>99045005261002</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme Mitteilung zum Umzug von gentechnischen Arbeiten in eine andere zugelassene Anlage desselben Betreibers bei der Genehmigungsbehörde</v>
+      </c>
+      <c r="C155" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Bezirksregierung Düsseldorf</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156">
-        <v>99132024017000</v>
+      <c r="A156" t="str">
+        <v>99045004261004</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Mitteilung zum Betrieb gentechnischer Anlagen Entgegennahme Änderungen sicherheitsrelevanter Einrichtungen und Vorkehrungen</v>
+      </c>
+      <c r="C156" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157">
-        <v>99132024101001</v>
+      <c r="A157" t="str">
+        <v>99045006261002</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Mitteilung über neue Informationen über Risiken für die menschliche Gesundheit oder die Umwelt Entgegennahme Mitteilung über neue Informationen über Risiken für die menschliche Gesundheit oder die Umwelt bei der Überwachungsbehörde</v>
+      </c>
+      <c r="C157" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158">
-        <v>99132024101000</v>
+      <c r="A158" t="str">
+        <v>99045006261001</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Mitteilung über neue Informationen über Risiken für die menschliche Gesundheit oder die Umwelt Entgegennahme Mitteilung über neue Informationen über Risiken für die menschliche Gesundheit oder die Umwelt bei der Genehmigungsbehörde</v>
+      </c>
+      <c r="C158" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Bezirksregierung Düsseldorf</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159">
-        <v>99132024017001</v>
+      <c r="A159" t="str">
+        <v>99045006261000</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Mitteilung über neue Informationen über Risiken für die menschliche Gesundheit oder die Umwelt Entgegennahme</v>
+      </c>
+      <c r="C159" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160">
-        <v>99055031012000</v>
+      <c r="A160" t="str">
+        <v>99045005261006</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme Mitteilung über Abweichungen vom erwarteten Verlauf der gentechnischen Arbeit mit dem Verdacht einer Gefährdung der Schutzgüter gegenüber der Überwachungsbehörde</v>
+      </c>
+      <c r="C160" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161">
-        <v>99055031012001</v>
+      <c r="A161" t="str">
+        <v>99045005261005</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme Mitteilung über Abweichungen vom erwarteten Verlauf der gentechnischen Arbeit mit dem Verdacht einer Gefährdung der Schutzgüter gegenüber der Genehmigungsbehörde</v>
+      </c>
+      <c r="C161" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Bezirksregierung Düsseldorf</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162">
-        <v>99055031065000</v>
+      <c r="A162" t="str">
+        <v>99045005261000</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme</v>
+      </c>
+      <c r="C162" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Bezirksregierung Düsseldorf</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163">
-        <v>99055031011000</v>
+      <c r="A163" t="str">
+        <v>99045005261003</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme Mitteilung zum Umzug von gentechnischen Arbeiten in eine andere zugelassene Anlage desselben Betreibers bei der Überwachungsbehörde</v>
+      </c>
+      <c r="C163" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164">
-        <v>99055004032000</v>
+      <c r="A164" t="str">
+        <v>99045005261001</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Mitteilung zu gentechnischen Arbeiten Entgegennahme Mitteilung zum Umzug von gentechnischen Arbeiten in eine andere zugelassene Anlage desselben Betreibers</v>
+      </c>
+      <c r="C164" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165">
-        <v>99018008005000</v>
+      <c r="A165" t="str">
+        <v>99045004261003</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Mitteilung zum Betrieb gentechnischer Anlagen Entgegennahme Änderungen der Beauftragung der  Projektleitung oder der Beauftragung für die Biologische Sicherheit bei der Überwachungsbehörde</v>
+      </c>
+      <c r="C165" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166">
-        <v>99018008005001</v>
+      <c r="A166" t="str">
+        <v>99045004261002</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Mitteilung zum Betrieb gentechnischer Anlagen Entgegennahme Änderungen bezüglich der Beauftragung der Projektleitung oder der Beauftragten für die Biologische Sicherheit bei der Genehmigungsbehörde</v>
+      </c>
+      <c r="C166" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Bezirksregierung Düsseldorf</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167">
-        <v>99018008005002</v>
+      <c r="A167" t="str">
+        <v>99045004261001</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Mitteilung zum Betrieb gentechnischer Anlagen Entgegennahme Einstellung des Betriebs</v>
+      </c>
+      <c r="C167" t="str">
+        <v>/antrag/gentechnische-anlagen-leistungsauswahl</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168">
-        <v>99018057016000</v>
+      <c r="A168" t="str">
+        <v>99050065007000</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Packstellen Zulassung</v>
+      </c>
+      <c r="C168" t="str">
+        <v>/antrag/packstellen-leistungsauswahl/</v>
+      </c>
+      <c r="E168" t="str">
+        <v>LANUV / NRW weit</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169">
-        <v>99050047016000</v>
+      <c r="A169" t="str">
+        <v>99110027101000</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Kennnummer für Betriebe zur Haltung von Legehennen Mitteilung</v>
+      </c>
+      <c r="C169" t="str">
+        <v>/antrag/packstellen-leistungsauswahl/</v>
+      </c>
+      <c r="E169" t="str">
+        <v>LANUV / NRW weit</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170">
-        <v>99071001001000</v>
+      <c r="A170" t="str">
+        <v>77000000008063</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Anzeige der Räume des Gewerbebetriebs eines Pfandleihers Entgegennahme</v>
+      </c>
+      <c r="C170" t="str">
+        <v>/antrag/pfandleihe-leistungsauswahl/</v>
+      </c>
+      <c r="E170" t="str">
+        <v xml:space="preserve">Kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden) </v>
       </c>
     </row>
     <row r="171">
-      <c r="A171">
-        <v>99050106001000</v>
+      <c r="A171" t="str">
+        <v>99093044261000</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Registrierung Unternehmen für die Herstellung und/oder Reparatur von Packmitteln aus Holz Entgegennahme</v>
+      </c>
+      <c r="C171" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172">
-        <v>99003021218000</v>
+      <c r="A172" t="str">
+        <v>99093051099000</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Anbringung von Markierung (ISMP15) für Verpackungsmaterial aus Holz Ermächtigung</v>
+      </c>
+      <c r="C172" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173">
-        <v>99003021005000</v>
+      <c r="A173" t="str">
+        <v>99093049019002</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Benennung einer Kontrollstelle für pflanzengesundheitliche Kontrollen (Aufnahme in das Verzeichnis der Kontrollstellen) Registrierung für Forstpflanzen und Holz</v>
+      </c>
+      <c r="C173" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174">
-        <v>99003021169000</v>
+      <c r="A174" t="str">
+        <v>99093043261002</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Registrierung Unternehmen für die Ausfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme für Forstpflanzen und Holz</v>
+      </c>
+      <c r="C174" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175">
-        <v>99058067064003</v>
+      <c r="A175" t="str">
+        <v>99093041099002</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Ausstellung von Pflanzenpässen Ermächtigung für Forstpflanzen und Holz</v>
+      </c>
+      <c r="C175" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176">
-        <v>99058067064002</v>
+      <c r="A176" t="str">
+        <v>99093046261000</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Registrierung Unternehmen für die Behandlung von Holz Entgegennahme</v>
+      </c>
+      <c r="C176" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177">
-        <v>99058067064000</v>
+      <c r="A177" t="str">
+        <v>99093042261002</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Registrierung Unternehmen für die Einfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme für Forstpflanzen und Holz</v>
+      </c>
+      <c r="C177" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178">
-        <v>99058067064001</v>
+      <c r="A178" t="str">
+        <v>99093040261002</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Registrierung Unternehmen für das Verbringen von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen in der EU (Pflanzenpass) Entgegennahme für Forstpflanzen und Holz</v>
+      </c>
+      <c r="C178" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179">
-        <v>99050013001000</v>
+      <c r="A179" t="str">
+        <v>99093053019000</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Sonstige Attestierungen Registrierung</v>
+      </c>
+      <c r="C179" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E179" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180">
-        <v>99050154261000</v>
+      <c r="A180" t="str">
+        <v>99093040261000</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Registrierung Unternehmen für das Verbringen von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen in der EU (Pflanzenpass) Entgegennahme</v>
+      </c>
+      <c r="C180" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E180" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181">
-        <v>99050166261000</v>
+      <c r="A181" t="str">
+        <v>77000000008859</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Ausstellung von Pflanzenpässen Ermächtigung für (die Warenart) Reben</v>
+      </c>
+      <c r="C181" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E181" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182">
-        <v>99037013261000</v>
+      <c r="A182" t="str">
+        <v>77000000008860</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Registrierung Unternehmen für die Ausfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme für (die Warenart) Reben</v>
+      </c>
+      <c r="C182" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E182" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183">
-        <v>99037013261001</v>
+      <c r="A183" t="str">
+        <v>77000000008857</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Registrierung Unternehmen für das Verbringen von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen in der EU (Pflanzenpass) Entgegennahme für (die Warenart) Reben</v>
+      </c>
+      <c r="C183" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E183" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184">
-        <v>99037012261000</v>
+      <c r="A184" t="str">
+        <v>77000000008861</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Benennung einer Kontrollstelle für pflanzengesundheitliche Kontrollen (Aufnahme in das Verzeichnis der Kontrollstellen) Registrierung für (die Warenart) Reben</v>
+      </c>
+      <c r="C184" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E184" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185">
-        <v>99037011204000</v>
+      <c r="A185" t="str">
+        <v>99093050261000</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Registrierung Unternehmen für die Erzeugung/Lagerung von Speise-/Wirtschaftskartoffeln Entgegennahme</v>
+      </c>
+      <c r="C185" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E185" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186">
-        <v>99045004261000</v>
+      <c r="A186" t="str">
+        <v>99093052006000</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Quarantänestation/geschlossene Anlage Genehmigung</v>
+      </c>
+      <c r="C186" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E186" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187">
-        <v>99045005261004</v>
+      <c r="A187" t="str">
+        <v>99093052019000</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Quarantänestation/geschlossene Anlage Registrierung</v>
+      </c>
+      <c r="C187" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E187" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188">
-        <v>99045005261002</v>
+      <c r="A188" t="str">
+        <v>99093042261000</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Registrierung Unternehmen für die Einfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme</v>
+      </c>
+      <c r="C188" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E188" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189">
-        <v>99045004261004</v>
+      <c r="A189" t="str">
+        <v>99093053099000</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Sonstige Attestierungen Ermächtigung</v>
+      </c>
+      <c r="C189" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E189" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190">
-        <v>99045006261002</v>
+      <c r="A190" t="str">
+        <v>99093048261000</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Registrierung Unternehmen für die Erzeugung und/oder den Handel von Anbaumaterial Entgegennahme</v>
+      </c>
+      <c r="C190" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E190" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191">
-        <v>99045006261001</v>
+      <c r="A191" t="str">
+        <v>99093043261000</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Registrierung Unternehmen für die Ausfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme</v>
+      </c>
+      <c r="C191" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E191" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192">
-        <v>99045006261000</v>
+      <c r="A192" t="str">
+        <v>99093041099000</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Ausstellung von Pflanzenpässen Ermächtigung</v>
+      </c>
+      <c r="C192" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E192" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193">
-        <v>99045005261006</v>
+      <c r="A193" t="str">
+        <v>77000000008862</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Quarantänestation/geschlossene Anlage Registrierung für (die Warenart) Reben</v>
+      </c>
+      <c r="C193" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E193" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194">
-        <v>99045005261005</v>
+      <c r="A194" t="str">
+        <v>77000000008858</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Registrierung Unternehmen für die Einfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme für (die Warenart) Reben</v>
+      </c>
+      <c r="C194" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E194" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195">
-        <v>99045005261000</v>
+      <c r="A195" t="str">
+        <v>99093047261000</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Registrierung Unternehmen für die Bereitstellung von Informationen für Reisende und/oder für Kunden von Postdienststellen Entgegennahme</v>
+      </c>
+      <c r="C195" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E195" t="str">
+        <v>LWK /NRW-weit</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196">
-        <v>99045005261003</v>
+      <c r="A196" t="str">
+        <v>77000000008863</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Quarantänestation/geschlossene Anlage Genehmigung für (die Warenart) Reben</v>
+      </c>
+      <c r="C196" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E196" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197">
-        <v>99045005261001</v>
+      <c r="A197" t="str">
+        <v>99093049019000</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Benennung einer Kontrollstelle für pflanzengesundheitliche Kontrollen (Aufnahme in das Verzeichnis der Kontrollstellen) Registrierung</v>
+      </c>
+      <c r="C197" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E197" t="str">
+        <v>LWK und Landesbetrieb Wald und Holz / NRW weit</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198">
-        <v>99045004261003</v>
+      <c r="A198" t="str">
+        <v>99093040261001</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Registrierung Unternehmen für das Verbringen von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen in der EU (Pflanzenpass) Entgegennahme für Pflanzen und deren Erzeugnisse</v>
+      </c>
+      <c r="C198" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E198" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199">
-        <v>99045004261002</v>
+      <c r="A199" t="str">
+        <v>99093042261001</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Registrierung Unternehmen für die Einfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme für Pflanzen und deren Erzeugnisse</v>
+      </c>
+      <c r="C199" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E199" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200">
-        <v>99045004261001</v>
+      <c r="A200" t="str">
+        <v>99093041099001</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Ausstellung von Pflanzenpässen Ermächtigung für Pflanzen und deren Erzeugnisse</v>
+      </c>
+      <c r="C200" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E200" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201">
-        <v>99050065007000</v>
+      <c r="A201" t="str">
+        <v>99093043261001</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Registrierung Unternehmen für die Ausfuhr von Pflanzen, Pflanzenerzeugnissen und sonstigen Gegenständen mit Erfordernis eines Pflanzengesundheitszeugnisses Entgegennahme für Pflanzen und deren Erzeugnisse</v>
+      </c>
+      <c r="C201" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E201" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202">
-        <v>99110027101000</v>
+      <c r="A202" t="str">
+        <v>99093049019001</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Benennung einer Kontrollstelle für pflanzengesundheitliche Kontrollen (Aufnahme in das Verzeichnis der Kontrollstellen) Registrierung für Pflanzen und deren Erzeugnisse</v>
+      </c>
+      <c r="C202" t="str">
+        <v>/antrag/pflanzengesundheit-leistungsauswahl/</v>
+      </c>
+      <c r="E202" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203">
-        <v>99050021005000</v>
+      <c r="A203" t="str">
+        <v>99093016016000</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Versuchseinrichtung für Pflanzenschutzmittel Anerkennung</v>
+      </c>
+      <c r="C203" t="str">
+        <v>/antrag/pflanzenschutzmittel-leistungsauswahl/</v>
+      </c>
+      <c r="E203" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204">
-        <v>77000000008063</v>
+      <c r="A204" t="str">
+        <v>99093023261000</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Anzeige zur Beratung über und Anwendung von Pflanzenschutzmitteln Entgegennahme</v>
+      </c>
+      <c r="C204" t="str">
+        <v>/antrag/pflanzenschutzmittel-leistungsauswahl/</v>
+      </c>
+      <c r="E204" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205">
-        <v>99093044261000</v>
+      <c r="A205" t="str">
+        <v>99093022261000</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Anzeige zum Handel mit Pflanzenschutzmitteln Entgegennahme</v>
+      </c>
+      <c r="C205" t="str">
+        <v>/antrag/pflanzenschutzmittel-leistungsauswahl/</v>
+      </c>
+      <c r="E205" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206">
-        <v>99093051099000</v>
+      <c r="A206" t="str">
+        <v>99005025016000</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Pharmaberater Anerkennung</v>
+      </c>
+      <c r="C206" t="str">
+        <v>/antrag/pharmaberater-leistungsauswahl/</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207">
-        <v>99093049019002</v>
+      <c r="A207" t="str">
+        <v>77000000008777</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Zuverlässigkeit von im Prostitutionsgewerbe tätigen Personen Überprüfung</v>
+      </c>
+      <c r="C207" t="str">
+        <v>/antrag/prostschg-leistungsauswahl/</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Kreisordnungsbehörde / Kreise und Kreisfreie Städte</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208">
-        <v>99093043261002</v>
+      <c r="A208" t="str">
+        <v>99012108006000</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Errichtung einer Zweigniederlassung von Prüfingenieuren für Brandschutz Genehmigung</v>
+      </c>
+      <c r="C208" t="str">
+        <v>/antrag/pruefingenieur-leistungsauswahl/</v>
+      </c>
+      <c r="E208" t="str">
+        <v>MHKBD NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209">
-        <v>99093041099002</v>
+      <c r="A209" t="str">
+        <v>99012026016000</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Prüfingenieure für Brandschutz Anerkennung</v>
+      </c>
+      <c r="C209" t="str">
+        <v>/antrag/pruefingenieur-leistungsauswahl/</v>
+      </c>
+      <c r="E209" t="str">
+        <v>MHKBD NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210">
-        <v>99093046261000</v>
+      <c r="A210" t="str">
+        <v>99012019016000</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Prüfingenieure für Baustatik Anerkennung</v>
+      </c>
+      <c r="C210" t="str">
+        <v>/antrag/pruefingenieur-leistungsauswahl/</v>
+      </c>
+      <c r="E210" t="str">
+        <v>MHKBD NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211">
-        <v>99093042261002</v>
+      <c r="A211" t="str">
+        <v>99012107006000</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Errichtung einer Zweigniederlassung von Prüfingenieuren für Baustatik Genehmigung</v>
+      </c>
+      <c r="C211" t="str">
+        <v>/antrag/pruefingenieur-leistungsauswahl/</v>
+      </c>
+      <c r="E211" t="str">
+        <v>MHKBD NRW/ NRW-weit</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212">
-        <v>99093040261002</v>
+      <c r="A212" t="str">
+        <v>99012053001000</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Anerkennung als Prüfsachverständiger für sicherheitstechnische Anlagen und Einrichtungen Erteilung</v>
+      </c>
+      <c r="C212" t="str">
+        <v>/antrag/pruefsv-sicherheitstechnische-anlagen-leistungsauswahl/</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Bezirksregierung Düsseldorf / NRW weit</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213">
-        <v>99093053019000</v>
+      <c r="A213" t="str">
+        <v>99012054261000</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Anzeige der Aufnahme der Tätigkeit als Prüfsachverständiger für sicherheitstechnische Anlagen und Einrichtungen Entgegennahme</v>
+      </c>
+      <c r="C213" t="str">
+        <v>/antrag/pruefsv-sicherheitstechnische-anlagen-leistungsauswahl/</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Bezirksregierung Düsseldorf / NRW weit</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214">
-        <v>99093040261000</v>
+      <c r="A214" t="str">
+        <v>99012065016000</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Prüfsachverständige für technische Gebäudeausrüstung Anerkennung</v>
+      </c>
+      <c r="C214" t="str">
+        <v>/antrag/pruefsv-sicherheitstechnische-anlagen-leistungsauswahl/</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Bezirksregierung Düsseldorf / NRW weit</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215">
-        <v>77000000008859</v>
+      <c r="A215" t="str">
+        <v>99018094007000</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Zahnärztliche Prüfung Zulassung</v>
+      </c>
+      <c r="C215" t="str">
+        <v>/antrag/staatliche-pruefungszulassung-leistungsauswahl/</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216">
-        <v>77000000008860</v>
+      <c r="A216" t="str">
+        <v>99018092007000</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Pharmazeutische Prüfung Zulassung</v>
+      </c>
+      <c r="C216" t="str">
+        <v>/antrag/staatliche-pruefungszulassung-leistungsauswahl/</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217">
-        <v>77000000008857</v>
+      <c r="A217" t="str">
+        <v>99018141007000</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Staatliche psychotherapeutische Prüfung Zulassung</v>
+      </c>
+      <c r="C217" t="str">
+        <v>/antrag/staatliche-pruefungszulassung-leistungsauswahl/</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218">
-        <v>77000000008861</v>
+      <c r="A218" t="str">
+        <v>99018090007000</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Staatliche Prüfung zum Kinder- und Jugendlichenpsychotherapeuten Zulassung</v>
+      </c>
+      <c r="C218" t="str">
+        <v>/antrag/staatliche-pruefungszulassung-leistungsauswahl/</v>
+      </c>
+      <c r="E218" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219">
-        <v>99093050261000</v>
+      <c r="A219" t="str">
+        <v>99018091007000</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Staatliche Prüfung zum Psychologischen Psychotherapeuten Zulassung</v>
+      </c>
+      <c r="C219" t="str">
+        <v>/antrag/staatliche-pruefungszulassung-leistungsauswahl/</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220">
-        <v>99093052006000</v>
+      <c r="A220" t="str">
+        <v>99018093007000</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Ärztliche Prüfung Zulassung</v>
+      </c>
+      <c r="C220" t="str">
+        <v>/antrag/staatliche-pruefungszulassung-leistungsauswahl/</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Kassenärztliche Vereinigungen</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221">
-        <v>99093052019000</v>
+      <c r="A221" t="str">
+        <v>99018006060001</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Arztregister Eintragung für Psychotherapeuten</v>
+      </c>
+      <c r="C221" t="str">
+        <v>/antrag/psychotherapeutenregister-leistungsauswahl/</v>
+      </c>
+      <c r="E221" t="str">
+        <v>Kassenärztliche Vereinigungen</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222">
-        <v>99093042261000</v>
+      <c r="A222" t="str">
+        <v>99094002019000</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Rechtsdienstleistungen aufgrund besonderer Sachkunde Registrierung</v>
+      </c>
+      <c r="C222" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223">
-        <v>99093053099000</v>
+      <c r="A223" t="str">
+        <v>99094002019004</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Rechtsdienstleistungen aufgrund besonderer Sachkunde Registrierung von Personen die Inkassodienstleistungen erbringen</v>
+      </c>
+      <c r="C223" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E223" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224">
-        <v>99093048261000</v>
+      <c r="A224" t="str">
+        <v>99094002019002</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Rechtsdienstleistungen aufgrund besonderer Sachkunde Registrierung von Personen die Rechtsdienstleistungen in einem ausländischen Recht erbringen</v>
+      </c>
+      <c r="C224" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E224" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225">
-        <v>99093043261000</v>
+      <c r="A225" t="str">
+        <v>99094001011000</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Rechtsdienstleistungsregister Änderung</v>
+      </c>
+      <c r="C225" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226">
-        <v>99093041099000</v>
+      <c r="A226" t="str">
+        <v>99094002019003</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Rechtsdienstleistungen aufgrund besonderer Sachkunde Registrierung von Personen die Erlaubnisinhaber nach dem Rechtsberatungsgesetz sind</v>
+      </c>
+      <c r="C226" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227">
-        <v>77000000008862</v>
+      <c r="A227" t="str">
+        <v>99094002019001</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Rechtsdienstleistungen aufgrund besonderer Sachkunde Registrierung von Personen die Rentenberatung erbringen</v>
+      </c>
+      <c r="C227" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E227" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228">
-        <v>77000000008858</v>
+      <c r="A228" t="str">
+        <v>99094001064000</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Rechtsdienstleistungsregister Löschung</v>
+      </c>
+      <c r="C228" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E228" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229">
-        <v>99093047261000</v>
+      <c r="A229" t="str">
+        <v>99094007095000</v>
+      </c>
+      <c r="B229" t="str">
+        <v>vorübergehende Registrierung vorübergehender Rechtsdienstleistungen öffentliche Bekanntmachung</v>
+      </c>
+      <c r="C229" t="str">
+        <v>/antrag/rechtsdienstleistungsregister-leistungsauswahl/</v>
+      </c>
+      <c r="E229" t="str">
+        <v>Oberlandesgerichte / 3 Oberlandesgerichte (Düsseldorf, Hamm, Köln)</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230">
-        <v>77000000008863</v>
+      <c r="A230" t="str">
+        <v>99050023005001</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Reisegewerbe Erlaubnis nachträgliche Aufnahme, Änderung und Ergänzung von Auflagen oder aufgeführten Tätigkeiten</v>
+      </c>
+      <c r="C230" t="str">
+        <v>/antrag/reisegewerbe-leistungsauswahl/</v>
+      </c>
+      <c r="E230" t="str">
+        <v xml:space="preserve">Kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden) </v>
       </c>
     </row>
     <row r="231">
-      <c r="A231">
-        <v>99093049019000</v>
+      <c r="A231" t="str">
+        <v>99147007016000</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Sachverständige für Gashochdruckleitungen Anerkennung</v>
+      </c>
+      <c r="C231" t="str">
+        <v>/antrag/sv-gashochdruck-leistungsauswahl/</v>
+      </c>
+      <c r="E231" t="str">
+        <v>Bezirksregierung Arnsberg / NRW-weit</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232">
-        <v>99093040261001</v>
+      <c r="A232" t="str">
+        <v>99050049007000</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Sachverständige für Gegenproben Zulassung</v>
+      </c>
+      <c r="C232" t="str">
+        <v>/antrag/sv-gegenproben-leistungsauswahl/</v>
+      </c>
+      <c r="E232" t="str">
+        <v>LANUV / NRW weit</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233">
-        <v>99093042261001</v>
+      <c r="A233" t="str">
+        <v>99110042016000</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Sachverständige für Hunde Anerkennung</v>
+      </c>
+      <c r="C233" t="str">
+        <v>/antrag/sv-hunde-leistungsauswahl/</v>
+      </c>
+      <c r="E233" t="str">
+        <v>LANUV / NRW weit</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234">
-        <v>99093041099001</v>
+      <c r="A234" t="str">
+        <v>99078013108000</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Sachverständige für die Land- und Forstwirtschaft Öffentliche Bestellung und Vereidigung</v>
+      </c>
+      <c r="C234" t="str">
+        <v>/antrag/sachverstaendige-land-forstwirtschaft-leistungsauswahl/</v>
+      </c>
+      <c r="E234" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235">
-        <v>99093043261001</v>
+      <c r="A235" t="str">
+        <v>99078013108001</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Sachverständige für die Land- und Forstwirtschaft Öffentliche Bestellung und Vereidigung bei Änderung oder Erweiterung des Sachgebietes</v>
+      </c>
+      <c r="C235" t="str">
+        <v>/antrag/sachverstaendige-land-forstwirtschaft-leistungsauswahl/</v>
+      </c>
+      <c r="E235" t="str">
+        <v>LWK / NRW weit</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236">
-        <v>99093049019001</v>
+      <c r="A236" t="str">
+        <v>99140002016000</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Sachverständige nach Landesbauordnung Anerkennung</v>
+      </c>
+      <c r="C236" t="str">
+        <v>/antrag/sachverstaendige-landesbauordnung-leistungsauswahl/</v>
+      </c>
+      <c r="E236" t="str">
+        <v>IK Bau / NRW-weit</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237">
-        <v>99093016016000</v>
+      <c r="A237" t="str">
+        <v>99012050001000</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Anerkennung als Prüfsachverständiger für den Erd- und Grundbau Erteilung</v>
+      </c>
+      <c r="C237" t="str">
+        <v>/antrag/sachverstaendige-landesbauordnung-leistungsauswahl/</v>
+      </c>
+      <c r="E237" t="str">
+        <v>IK Bau / NRW-weit</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238">
-        <v>99093023261000</v>
+      <c r="A238" t="str">
+        <v>99058013263000</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Sachverständige zur Erstattung von Gutachten zu Leistungen und Tätigkeiten des Handwerks und deren Wert Vereidigung</v>
+      </c>
+      <c r="C238" t="str">
+        <v>/antrag/sv-waren-leistungsauswahl/</v>
+      </c>
+      <c r="E238" t="str">
+        <v>HWK / 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239">
-        <v>99093022261000</v>
+      <c r="A239" t="str">
+        <v>99058013061000</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Sachverständige zur Erstattung von Gutachten zu Leistungen und Tätigkeiten des Handwerks und deren Wert Bestellung</v>
+      </c>
+      <c r="C239" t="str">
+        <v>/antrag/sv-waren-leistungsauswahl/</v>
+      </c>
+      <c r="E239" t="str">
+        <v>HWK / 7 HWKn in NRW</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240">
-        <v>99005025016000</v>
+      <c r="A240" t="str">
+        <v>99089056001000</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Erlaubnis zum Betrieb einer ortsfesten Schießstätte Erteilung</v>
+      </c>
+      <c r="C240" t="str">
+        <v>/antrag/schiessstaetten-leistungsauswahl/</v>
+      </c>
+      <c r="E240" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241">
-        <v>99050180005000</v>
+      <c r="A241" t="str">
+        <v>99089095261000</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Anzeige der Aufnahme oder Beendigung des Betriebs einer Schießstätte Entgegennahme</v>
+      </c>
+      <c r="C241" t="str">
+        <v>/antrag/schiessstaetten-leistungsauswahl/</v>
+      </c>
+      <c r="E241" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242">
-        <v>77000000008777</v>
+      <c r="A242" t="str">
+        <v>99089094001000</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Erlaubnis zum Betrieb einer ortsveränderlichen Schießstätte Erteilung</v>
+      </c>
+      <c r="C242" t="str">
+        <v>/antrag/schiessstaetten-leistungsauswahl/</v>
+      </c>
+      <c r="E242" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243">
-        <v>99050181020000</v>
+      <c r="A243" t="str">
+        <v>99050193261000</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Anzeige der Tätigkeit als Hebamme Entgegennahme</v>
+      </c>
+      <c r="C243" t="str">
+        <v>/antrag/heilberufe-leistungsauswahl/</v>
+      </c>
+      <c r="E243" t="str">
+        <v>Untere Gesundheitsbehörde (Kreise und Kreisfreie Städte)</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244">
-        <v>99050182261000</v>
+      <c r="A244" t="str">
+        <v>99050063261000</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Anzeige einer selbstständigen Tätigkeit in einem Heilberuf Entgegennahme</v>
+      </c>
+      <c r="C244" t="str">
+        <v>/antrag/heilberufe-leistungsauswahl/</v>
+      </c>
+      <c r="E244" t="str">
+        <v>Untere Gesundheitsbehörden (Kreise und kreisfreie Städte)</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245">
-        <v>99050183261000</v>
+      <c r="A245" t="str">
+        <v>99050027008000</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Spielgeräte mit Gewinnmöglichkeit Bestätigung</v>
+      </c>
+      <c r="C245" t="str">
+        <v>/antrag/spielhallen-leistungsauswahl/</v>
+      </c>
+      <c r="E245" t="str">
+        <v xml:space="preserve">Kommunale Ordnungsbehörden / Gemeinde (396 Städte und Gemeinden) </v>
       </c>
     </row>
     <row r="246">
-      <c r="A246">
-        <v>99050182020000</v>
+      <c r="A246" t="str">
+        <v>99089038169000</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Sprengung mit explosionsgefährlichen Stoffen Anzeige</v>
+      </c>
+      <c r="C246" t="str">
+        <v>/antrag/sprengstoffe/</v>
+      </c>
+      <c r="E246" t="str">
+        <v>Bezirksregierungen (alle)/ Bezirksregierungen</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247">
-        <v>99050181005000</v>
+      <c r="A247" t="str">
+        <v>99089039169000</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Umgang mit Airbag- und Gurtstraffereinheiten Anzeige</v>
+      </c>
+      <c r="C247" t="str">
+        <v>/antrag/sprengstoffe/</v>
+      </c>
+      <c r="E247" t="str">
+        <v>Bezirksregierungen (alle)/ Bezirksregierungen</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248">
-        <v>99050179104000</v>
+      <c r="A248" t="str">
+        <v>99089006001000</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Erlaubnis zum gewerbsmäßigen Umgang und Verkehr mit explosionsgefährlichen Stoffen Erteilung</v>
+      </c>
+      <c r="C248" t="str">
+        <v>/antrag/sprengstoffe/</v>
+      </c>
+      <c r="E248" t="str">
+        <v>Bezirksregierungen (alle)/ Bezirksregierungen</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249">
-        <v>99050184261000</v>
+      <c r="A249" t="str">
+        <v>99089004001000</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Befähigungsschein nach dem Sprengstoffgesetz Erteilung</v>
+      </c>
+      <c r="C249" t="str">
+        <v>/antrag/sprengstoffe/</v>
+      </c>
+      <c r="E249" t="str">
+        <v>Bezirksregierungen (alle)/ Bezirksregierungen</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250">
-        <v>99050203261000</v>
+      <c r="A250" t="str">
+        <v>99089159261000</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Anzeige zum Umgang und Verkehr mit explosionsgefährlichen Stoffen Entgegennahme</v>
+      </c>
+      <c r="C250" t="str">
+        <v>/antrag/sprengstoffe/</v>
+      </c>
+      <c r="E250" t="str">
+        <v>Bezirksregierungen (alle)/ Bezirksregierungen</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251">
-        <v>99050182005000</v>
+      <c r="A251" t="str">
+        <v>99108015182000</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Gehwegüberfahrten Herstellung</v>
+      </c>
+      <c r="C251" t="str">
+        <v>/antrag/sondernutzungstr/</v>
+      </c>
+      <c r="E251" t="str">
+        <v>Verkehrsämter</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252">
-        <v>99050183005000</v>
+      <c r="A252" t="str">
+        <v>99108015134001</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Gehwegüberfahrten Zustimmung zur Änderung oder Herstellung durch Dritte</v>
+      </c>
+      <c r="C252" t="str">
+        <v>/antrag/sondernutzungstr/</v>
+      </c>
+      <c r="E252" t="str">
+        <v>Verkehrsämter</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253">
-        <v>99050180020000</v>
+      <c r="A253" t="str">
+        <v>99108015134000</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Gehwegüberfahrten Zustimmung</v>
+      </c>
+      <c r="C253" t="str">
+        <v>/antrag/sondernutzungstr/</v>
+      </c>
+      <c r="E253" t="str">
+        <v>Verkehrsämter</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254">
-        <v>99012108006000</v>
+      <c r="A254" t="str">
+        <v>99108015011000</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Gehwegüberfahrten Änderung</v>
+      </c>
+      <c r="C254" t="str">
+        <v>/antrag/sondernutzungstr/</v>
+      </c>
+      <c r="E254" t="str">
+        <v>Verkehrsämter</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255">
-        <v>99012026016000</v>
+      <c r="A255" t="str">
+        <v>99108012005002</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Sondernutzung von Straßen Erlaubnis außerhalb der Ortschaft</v>
+      </c>
+      <c r="C255" t="str">
+        <v>/antrag/sondernutzungstr/</v>
+      </c>
+      <c r="E255" t="str">
+        <v>Verkehrsämter</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256">
-        <v>99012019016000</v>
+      <c r="A256" t="str">
+        <v>99018012001000</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Erlaubnis zur vorübergehenden Ausübung des tierärztlichen Berufs Erteilung</v>
+      </c>
+      <c r="C256" t="str">
+        <v>/antrag/tierarzt-leistungsauswahl/</v>
+      </c>
+      <c r="E256" t="str">
+        <v>LANUV / NRW-weit</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257">
-        <v>99012107006000</v>
+      <c r="A257" t="str">
+        <v>99110071104000</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Schlachtgeflügel-Transport innerhalb Deutschlands Anmeldung</v>
+      </c>
+      <c r="C257" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E257" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258">
-        <v>99012053001000</v>
+      <c r="A258" t="str">
+        <v>99110065007000</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Straßentransportmittel für lange Beförderungen von Tieren Zulassung</v>
+      </c>
+      <c r="C258" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E258" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259">
-        <v>99012054261000</v>
+      <c r="A259" t="str">
+        <v>99110066007001</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Transportunternehmen für Tiertransporte Zulassung Beförderungen (≤ 8 Stunden)</v>
+      </c>
+      <c r="C259" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E259" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260">
-        <v>99012065016000</v>
+      <c r="A260" t="str">
+        <v>99110066007002</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Transportunternehmen für Tiertransporte Zulassung lange Beförderungen (&gt; 8 Stunden)</v>
+      </c>
+      <c r="C260" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E260" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261">
-        <v>99018094007000</v>
+      <c r="A261" t="str">
+        <v>99110066007003</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Transportunternehmen für Tiertransporte Zulassung gem. Viehverkehrsverordnung</v>
+      </c>
+      <c r="C261" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E261" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262">
-        <v>99018092007000</v>
+      <c r="A262" t="str">
+        <v>99110066011000</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Transportunternehmen für Tiertransporte Änderung</v>
+      </c>
+      <c r="C262" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E262" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263">
-        <v>99018141007000</v>
+      <c r="A263" t="str">
+        <v>99110064012000</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Befähigungsnachweis für Tiertransporte Ausstellung</v>
+      </c>
+      <c r="C263" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E263" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264">
-        <v>99018090007000</v>
+      <c r="A264" t="str">
+        <v>99110066007000</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Transportunternehmen für Tiertransporte Zulassung</v>
+      </c>
+      <c r="C264" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E264" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265">
-        <v>99018091007000</v>
+      <c r="A265" t="str">
+        <v>99110070007001</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Sammelstelle für den Viehhandel Zulassung gem. Viehverkehrsverordnung</v>
+      </c>
+      <c r="C265" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E265" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266">
-        <v>99018093007000</v>
+      <c r="A266" t="str">
+        <v>99110068169000</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Gewerbsmäßiger Viehhandel/Viehtransport/Sammelstelle Anzeige</v>
+      </c>
+      <c r="C266" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E266" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267">
-        <v>99018006060001</v>
+      <c r="A267" t="str">
+        <v>99110069007000</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Viehhandelsunternehmen Zulassung</v>
+      </c>
+      <c r="C267" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E267" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268">
-        <v>99094002019000</v>
+      <c r="A268" t="str">
+        <v>99110070007000</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Sammelstelle für den Viehhandel Zulassung</v>
+      </c>
+      <c r="C268" t="str">
+        <v>/antrag/tiertransport-leistungsauswahl/</v>
+      </c>
+      <c r="E268" t="str">
+        <v>Kreisordnungsbehörden (Veterinärämter) / Kreise und kreisfreie Städte</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269">
-        <v>99094002019004</v>
+      <c r="A269" t="str">
+        <v>99063085261001</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Daten für die Wärmeplanung Entgegennahme von Bezirksschornsteinfegern</v>
+      </c>
+      <c r="C269" t="str">
+        <v>/antrag/kommunale-waermeplanung-leistungsauswahl/</v>
+      </c>
+      <c r="E269" t="str">
+        <v>Kommunale Wärmeplanungsbehörden</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270">
-        <v>99094002019002</v>
+      <c r="A270" t="str">
+        <v>99018010037000</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Übersetzer oder Übersetzerin allgemeine Feststellung</v>
+      </c>
+      <c r="C270" t="str">
+        <v>/antrag/dolmetscher-leistungsauswahl/</v>
+      </c>
+      <c r="E270" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271">
-        <v>99094001011000</v>
+      <c r="A271" t="str">
+        <v>99018174001000</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Allgemeine Beeidigung gerichtlicher Dolmetscher Erteilung</v>
+      </c>
+      <c r="C271" t="str">
+        <v>/antrag/dolmetscher-leistungsauswahl/</v>
+      </c>
+      <c r="E271" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272">
-        <v>99094002019003</v>
+      <c r="A272" t="str">
+        <v>99006052261000</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Anzeige der Verwendung von bestimmten Biozidprodukten Entgegennahme</v>
+      </c>
+      <c r="C272" t="str">
+        <v>/antrag/biozidprodukte-leistungsauswahl/</v>
+      </c>
+      <c r="E272" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273">
-        <v>99094002019001</v>
+      <c r="A273" t="str">
+        <v>99050199261000</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Anzeige gewerblicher Umgang mit tierischen Nebenprodukten Entgegennahme</v>
+      </c>
+      <c r="C273" t="str">
+        <v>/antrag/tiernebenprodukte-leistungsauswahl/</v>
+      </c>
+      <c r="E273" t="str">
+        <v xml:space="preserve">Kreisordnungsbehörden / Kreise und kreisfreie Städte </v>
       </c>
     </row>
     <row r="274">
-      <c r="A274">
-        <v>99094001064000</v>
+      <c r="A274" t="str">
+        <v>99050198006000</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Antrag für das Verbringen von tierischen Nebenprodukten in einen anderen Mitgliedstaat Genehmigung</v>
+      </c>
+      <c r="C274" t="str">
+        <v>/antrag/tiernebenprodukte-leistungsauswahl/</v>
+      </c>
+      <c r="E274" t="str">
+        <v xml:space="preserve">Kreisordnungsbehörden / Kreise und kreisfreie Städte </v>
       </c>
     </row>
     <row r="275">
-      <c r="A275">
-        <v>99094007095000</v>
+      <c r="A275" t="str">
+        <v>99050200276000</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Ausnahme von der Beseitigungspflicht von tierischen Nebenprodukten Ausnahmegenehmigung</v>
+      </c>
+      <c r="C275" t="str">
+        <v>/antrag/tiernebenprodukte-leistungsauswahl/</v>
+      </c>
+      <c r="E275" t="str">
+        <v xml:space="preserve">Kreisordnungsbehörden / Kreise und kreisfreie Städte </v>
       </c>
     </row>
     <row r="276">
-      <c r="A276">
-        <v>99050023005001</v>
+      <c r="A276" t="str">
+        <v>99050197001000</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Zulassung Anlage oder Betrieb für den gewerblichen Umgang mit tierischen Nebenprodukten Erteilung</v>
+      </c>
+      <c r="C276" t="str">
+        <v>/antrag/tiernebenprodukte-leistungsauswahl/</v>
+      </c>
+      <c r="E276" t="str">
+        <v>LANUV / NRW weit ODER Kreisordnungsbehörden (abhängig von Betriebsart)</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277">
-        <v>99050023169000</v>
+      <c r="A277" t="str">
+        <v>99089099001000</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Erlaubnis zum Verbringen von Waffen und Munition durch den Geltungsbereich des Waffengesetzes Erteilung</v>
+      </c>
+      <c r="C277" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E277" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278">
-        <v>99050023020000</v>
+      <c r="A278" t="str">
+        <v>99089177001000</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Erlaubnis zur gewerbsmäßig oder selbstständig betriebenen Herstellung/Bearbeitung/Instandsetzung von Schusswaffen oder Munition Erteilung</v>
+      </c>
+      <c r="C278" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E278" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279">
-        <v>99050023005000</v>
+      <c r="A279" t="str">
+        <v>99089100001001</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Erlaubnis zum Verbringen von Waffen und Munition aus dem Geltungsbereich des Waffengesetzes in andere Mitgliedsstaaten der EU Erteilung für gewerbsmäßige Waffenhersteller oder -händler</v>
+      </c>
+      <c r="C279" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E279" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280">
-        <v>99050105001000</v>
+      <c r="A280" t="str">
+        <v>99089091261000</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Anzeige der Eröffnung oder Schließung einer Zweigniederlassung oder einer unselbstständigen Zweigstelle zur gewerbsmäßigen Waffenherstellung und/oder des gewerbsmäßigen Waffenhandels Entgegennahme</v>
+      </c>
+      <c r="C280" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E280" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281">
-        <v>99050042169000</v>
+      <c r="A281" t="str">
+        <v>99089043001000</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Erlaubnis zum Verbringen von Waffen und Munition in den Geltungsbereich des Waffengesetzes Erteilung</v>
+      </c>
+      <c r="C281" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E281" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282">
-        <v>99147007016000</v>
+      <c r="A282" t="str">
+        <v>99089090261000</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Anzeige der Aufnahme oder Einstellung des Betriebs zur gewerbsmäßigen Waffenherstellung und/oder des gewerbsmäßigen Waffenhandels Entgegennahme</v>
+      </c>
+      <c r="C282" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E282" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283">
-        <v>99050049007000</v>
+      <c r="A283" t="str">
+        <v>99089190001000</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Erlaubnis zum Erwerb und Besitz sowie Führen von Waffen und Munition für Bewachungsunternehmen und ihr Bewachungspersonal Erteilung</v>
+      </c>
+      <c r="C283" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E283" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284">
-        <v>99110042016000</v>
+      <c r="A284" t="str">
+        <v>99089191001000</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Erlaubnis zum Erwerb und Besitz sowie Führen von Waffen und Munition für Bewachungsunternehmen und ihr Bewachungspersonal auf Seeschiffen Erteilung</v>
+      </c>
+      <c r="C284" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E284" t="str">
+        <v>Behörde für Inneres und Sport – Waffenbehörde – der Freien und Hansestadt Hamburg</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285">
-        <v>99078013108000</v>
+      <c r="A285" t="str">
+        <v>99089190020000</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Erlaubnis zum Erwerb und Besitz sowie Führen von Waffen und Munition für Bewachungsunternehmen und ihr Bewachungspersonal Verlängerung</v>
+      </c>
+      <c r="C285" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E285" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286">
-        <v>99078013108001</v>
+      <c r="A286" t="str">
+        <v>99089191020000</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Erlaubnis zum Erwerb und Besitz sowie Führen von Waffen und Munition für Bewachungsunternehmen und ihr Bewachungspersonal auf Seeschiffen Verlängerung</v>
+      </c>
+      <c r="C286" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E286" t="str">
+        <v>Behörde für Inneres und Sport – Waffenbehörde – der Freien und Hansestadt Hamburg</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287">
-        <v>99140002016000</v>
+      <c r="A287" t="str">
+        <v>99089020001000</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Vorgesehen zum Löschen - Erlaubnis zur gewerbsmäßigen Waffenherstellung Erteilung</v>
+      </c>
+      <c r="C287" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E287" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288">
-        <v>99012050001000</v>
+      <c r="A288" t="str">
+        <v>99089019001000</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Vorgesehen zum Löschen - Erlaubnis zum gewerbsmäßigen Waffenhandel Erteilung</v>
+      </c>
+      <c r="C288" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E288" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289">
-        <v>99058013263000</v>
+      <c r="A289" t="str">
+        <v>99089015001003</v>
+      </c>
+      <c r="B289" t="str">
+        <v>Stellvertretungserlaubnis für ein erlaubnisbedüftiges Waffengewerbe Erteilung für Leiter unselbstständige Zweigstelle</v>
+      </c>
+      <c r="C289" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E289" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290">
-        <v>99058013061000</v>
+      <c r="A290" t="str">
+        <v>99089015001002</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Stellvertretungserlaubnis für ein erlaubnisbedüftiges Waffengewerbe Erteilung für Leiter Zweigniederlassung</v>
+      </c>
+      <c r="C290" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E290" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291">
-        <v>99050053001000</v>
+      <c r="A291" t="str">
+        <v>99089135001000</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Ersatzbescheinigung für eine Waffenbesitzkarte für erheblich gefährdete Hoheitsträger zum Erwerb und Besitz von Schusswaffen Erteilung</v>
+      </c>
+      <c r="C291" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E291" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292">
-        <v>99050053020000</v>
+      <c r="A292" t="str">
+        <v>99089100001000</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Erlaubnis zum Verbringen von Waffen und Munition aus dem Geltungsbereich des Waffengesetzes in andere Mitgliedsstaaten der EU Erteilung</v>
+      </c>
+      <c r="C292" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E292" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293">
-        <v>99089056001000</v>
+      <c r="A293" t="str">
+        <v>99089136001000</v>
+      </c>
+      <c r="B293" t="str">
+        <v>Ersatzbescheinigung für eine Waffenbesitzkarte für erheblich gefährdete Hoheitsträger zum Führen von Schusswaffen Erteilung</v>
+      </c>
+      <c r="C293" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E293" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294">
-        <v>99089095261000</v>
+      <c r="A294" t="str">
+        <v>99089153001000</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Erlaubnis zum gewerbsmäßig oder selbstständig betriebenen Handel mit Schusswaffen oder Munition Erteilung</v>
+      </c>
+      <c r="C294" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E294" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295">
-        <v>99089094001000</v>
+      <c r="A295" t="str">
+        <v>99089190261000</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Erlaubnis zum Erwerb und Besitz sowie Führen von Waffen und Munition für Bewachungsunternehmen und ihr Bewachungspersonal Entgegennahme</v>
+      </c>
+      <c r="C295" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E295" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296">
-        <v>99050193261000</v>
+      <c r="A296" t="str">
+        <v>99089090261000</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Anzeige der Aufnahme oder Einstellung des Betriebs zur gewerbsmäßigen Waffenherstellung und/oder des gewerbsmäßigen Waffenhandels Entgegennahme</v>
+      </c>
+      <c r="C296" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E296" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297">
-        <v>99050063261000</v>
+      <c r="A297" t="str">
+        <v>99089015001001</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Stellvertretungserlaubnis für ein erlaubnisbedüftiges Waffengewerbe Erteilung für Stellvertreter</v>
+      </c>
+      <c r="C297" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E297" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298">
-        <v>99050027005000</v>
+      <c r="A298" t="str">
+        <v>99089015001000</v>
+      </c>
+      <c r="B298" t="str">
+        <v>Stellvertretungserlaubnis für ein erlaubnisbedüftiges Waffengewerbe Erteilung</v>
+      </c>
+      <c r="C298" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E298" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299">
-        <v>99050001005001</v>
+      <c r="A299" t="str">
+        <v>99089188001000</v>
+      </c>
+      <c r="B299" t="str">
+        <v>Erlaubnis zum Verbringen von Schusswaffen oder Munition in die, durch die oder aus der Bundesrepublik Deutschland Erteilung</v>
+      </c>
+      <c r="C299" t="str">
+        <v>/antrag/waffen-leistungsauswahl/</v>
+      </c>
+      <c r="E299" t="str">
+        <v>Kreispolizeibehörde /  47 Kreispolizeibehörden, davon 29 Landratsbehörden in 29 Kreisen und 18 Polizeipräsidien in den kreisfreien Städten, die z.T. für mehrere kreisfreie Städte zuständig sind</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300">
-        <v>99050028005000</v>
+      <c r="A300" t="str">
+        <v>99089027005005</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Glücksspiel veranstalten und vermitteln Erlaubnis Änderung des Betriebs einer Wettvermittlungsstelle</v>
+      </c>
+      <c r="C300" t="str">
+        <v>/antrag/wetten-leistungsauswahl/</v>
+      </c>
+      <c r="E300" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301">
-        <v>99050027008000</v>
+      <c r="A301" t="str">
+        <v>99089041005000</v>
+      </c>
+      <c r="B301" t="str">
+        <v>Buchmacher Erlaubnis</v>
+      </c>
+      <c r="C301" t="str">
+        <v>/antrag/wetten-leistungsauswahl/</v>
+      </c>
+      <c r="E301" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302">
-        <v>99050027008001</v>
+      <c r="A302" t="str">
+        <v>99089027005003</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Wettvermittlungsstelle betreiben Erlaubnis</v>
+      </c>
+      <c r="C302" t="str">
+        <v>/antrag/wetten-leistungsauswahl/</v>
+      </c>
+      <c r="E302" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303">
-        <v>99050001005000</v>
+      <c r="A303" t="str">
+        <v>99050196001000</v>
+      </c>
+      <c r="B303" t="str">
+        <v>Erlaubnis für den Betrieb eines Totalisators Erteilung</v>
+      </c>
+      <c r="C303" t="str">
+        <v>/antrag/wetten-leistungsauswahl/</v>
+      </c>
+      <c r="E303" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304">
-        <v>99089038169000</v>
+      <c r="A304" t="str">
+        <v>99031009030000</v>
+      </c>
+      <c r="B304" t="str">
+        <v>Betriebe für die klimaschutzgerechte Installation, Wartung und Instandhaltung von Anlagen Zertifizierung</v>
+      </c>
+      <c r="C304" t="str">
+        <v>/antrag/chemklimaschutzv-leistungsauswahl/</v>
+      </c>
+      <c r="E304" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305">
-        <v>99089039169000</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306">
-        <v>99089006001000</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307">
-        <v>99089004001000</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308">
-        <v>99089159261000</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309">
-        <v>99108011153000</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310">
-        <v>99108015182000</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311">
-        <v>99108015134001</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312">
-        <v>99108015134000</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313">
-        <v>99108015011000</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314">
-        <v>99108012005001</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315">
-        <v>99108012005002</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316">
-        <v>99108012005003</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317">
-        <v>99108012005005</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318">
-        <v>99108012005004</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319">
-        <v>99018012001000</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320">
-        <v>99110071104000</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321">
-        <v>99110065007000</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322">
-        <v>99110066007001</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323">
-        <v>99110066007002</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324">
-        <v>99110066007003</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325">
-        <v>99110066011000</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326">
-        <v>99110064012000</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327">
-        <v>99110066007000</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328">
-        <v>99110070007001</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329">
-        <v>99110068169000</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330">
-        <v>99110069007000</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331">
-        <v>99110070007000</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332">
-        <v>99063085261001</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333">
-        <v>99018010037000</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334">
-        <v>99018174001000</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335">
-        <v>99006052261000</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336">
-        <v>99050046005000</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337">
-        <v>99050199261000</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338">
-        <v>99050198006000</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339">
-        <v>99050200276000</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340">
-        <v>99050197001000</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341">
-        <v>99089099001000</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342">
-        <v>99089177001000</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343">
-        <v>99089100001001</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344">
-        <v>99089091261000</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345">
-        <v>99089043001000</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346">
-        <v>99089090261000</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347">
-        <v>99089190001000</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348">
-        <v>99089191001000</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349">
-        <v>99089190020000</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350">
-        <v>99089191020000</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351">
-        <v>99089020001000</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352">
-        <v>99089019001000</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353">
-        <v>99089015001003</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354">
-        <v>99089015001002</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355">
-        <v>99089135001000</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356">
-        <v>99089100001000</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357">
-        <v>99089136001000</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358">
-        <v>99089153001000</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359">
-        <v>99089190261000</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360">
-        <v>99089090261000</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361">
-        <v>99089015001001</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362">
-        <v>99089015001000</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363">
-        <v>99089188001000</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364">
-        <v>99089027005005</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365">
-        <v>99089041005000</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366">
-        <v>99089027005003</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367">
-        <v>99050196001000</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368">
-        <v>99050012186000</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369">
-        <v>99031009030000</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370">
+      <c r="A305" t="str">
         <v>99003017034000</v>
+      </c>
+      <c r="B305" t="str">
+        <v>Privatwirtschaftliche Krankenhäuser Aufnahme</v>
+      </c>
+      <c r="C305" t="str">
+        <v>/antrag/aufnahme-krankenhausplan-leistungsauswahl/</v>
+      </c>
+      <c r="E305" t="str">
+        <v>Bezirksregierungen (alle) / Bezirksregierungen</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A370"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E305"/>
   </ignoredErrors>
 </worksheet>
 </file>